--- a/timelog_ZixianLin.xlsx
+++ b/timelog_ZixianLin.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\linst\OneDrive\Desktop\4900 projects\chocohippo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{991F653F-BCFD-4954-94BA-18EA56A5113C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DD5D210-C79E-445E-9422-B01BD93D150D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2985" yWindow="2985" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>Zixian Lin</t>
   </si>
@@ -167,6 +167,9 @@
   </si>
   <si>
     <t>1 hour (9pm -10pm)- group meeting</t>
+  </si>
+  <si>
+    <t>1 hour (11am - 12pm)- fixing bug with homing missle</t>
   </si>
 </sst>
 </file>
@@ -517,7 +520,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A66" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B68" sqref="B68"/>
     </sheetView>
   </sheetViews>
@@ -1011,7 +1014,9 @@
       <c r="A69" s="2">
         <v>45230</v>
       </c>
-      <c r="B69" s="3"/>
+      <c r="B69" s="3" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="70" spans="1:2" ht="119.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="2">

--- a/timelog_ZixianLin.xlsx
+++ b/timelog_ZixianLin.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\linst\OneDrive\Desktop\4900 projects\chocohippo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DD5D210-C79E-445E-9422-B01BD93D150D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DDE6063-4A60-4A1C-8DAD-7EA62C1B5576}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>Zixian Lin</t>
   </si>
@@ -170,6 +170,9 @@
   </si>
   <si>
     <t>1 hour (11am - 12pm)- fixing bug with homing missle</t>
+  </si>
+  <si>
+    <t>2 hour(10:30am - 12:30pm) - creating a camera switching script for the loading and lobby scene</t>
   </si>
 </sst>
 </file>
@@ -520,8 +523,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B68" sqref="B68"/>
+    <sheetView tabSelected="1" topLeftCell="A68" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C69" sqref="C69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="73.28515625" defaultRowHeight="119.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1022,7 +1025,9 @@
       <c r="A70" s="2">
         <v>45231</v>
       </c>
-      <c r="B70" s="3"/>
+      <c r="B70" s="3" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="71" spans="1:2" ht="119.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="2">

--- a/timelog_ZixianLin.xlsx
+++ b/timelog_ZixianLin.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\linst\OneDrive\Desktop\4900 projects\chocohippo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DDE6063-4A60-4A1C-8DAD-7EA62C1B5576}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{332B5AAB-3A0D-48AC-8B63-35C95DD098B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -172,7 +172,8 @@
     <t>1 hour (11am - 12pm)- fixing bug with homing missle</t>
   </si>
   <si>
-    <t>2 hour(10:30am - 12:30pm) - creating a camera switching script for the loading and lobby scene</t>
+    <t>2 hour(10:30am - 12:30pm) - creating a camera switching script for the loading and lobby scene
+2 hour(1pm-3pm): work on the new boss</t>
   </si>
 </sst>
 </file>
@@ -524,7 +525,7 @@
   <dimension ref="A1:B114"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A68" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C69" sqref="C69"/>
+      <selection activeCell="C70" sqref="C70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="73.28515625" defaultRowHeight="119.25" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/timelog_ZixianLin.xlsx
+++ b/timelog_ZixianLin.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\linst\OneDrive\Desktop\4900 projects\chocohippo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{332B5AAB-3A0D-48AC-8B63-35C95DD098B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8081AC55-5352-4124-B96A-727E7BC4179E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-21600" yWindow="768" windowWidth="21600" windowHeight="11292" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -173,6 +173,7 @@
   </si>
   <si>
     <t>2 hour(10:30am - 12:30pm) - creating a camera switching script for the loading and lobby scene
+30 minutes (4pm -4:30pm)- fix bug on movement
 2 hour(1pm-3pm): work on the new boss</t>
   </si>
 </sst>
@@ -524,8 +525,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A68" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C70" sqref="C70"/>
+    <sheetView tabSelected="1" topLeftCell="A71" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B70" sqref="B70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="73.28515625" defaultRowHeight="119.25" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/timelog_ZixianLin.xlsx
+++ b/timelog_ZixianLin.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\linst\OneDrive\Desktop\4900 projects\chocohippo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8081AC55-5352-4124-B96A-727E7BC4179E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AF53944-448E-4681-8A68-F8AB19F0E6C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-21600" yWindow="768" windowWidth="21600" windowHeight="11292" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -173,6 +173,7 @@
   </si>
   <si>
     <t>2 hour(10:30am - 12:30pm) - creating a camera switching script for the loading and lobby scene
+2 hour (6:40pm-8:40pm)-fix bug with the game
 30 minutes (4pm -4:30pm)- fix bug on movement
 2 hour(1pm-3pm): work on the new boss</t>
   </si>
@@ -525,7 +526,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A71" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A69" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B70" sqref="B70"/>
     </sheetView>
   </sheetViews>

--- a/timelog_ZixianLin.xlsx
+++ b/timelog_ZixianLin.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\linst\OneDrive\Desktop\4900 projects\chocohippo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AF53944-448E-4681-8A68-F8AB19F0E6C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2C338BF-9CB1-4013-BE99-8F118B29C2B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-21600" yWindow="768" windowWidth="21600" windowHeight="11292" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/timelog_ZixianLin.xlsx
+++ b/timelog_ZixianLin.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\linst\OneDrive\Desktop\4900 projects\chocohippo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2C338BF-9CB1-4013-BE99-8F118B29C2B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB056E5D-F935-4A75-BCB5-CB2B09D98EFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21600" yWindow="768" windowWidth="21600" windowHeight="11292" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4050" yWindow="1905" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>Zixian Lin</t>
   </si>
@@ -176,6 +176,9 @@
 2 hour (6:40pm-8:40pm)-fix bug with the game
 30 minutes (4pm -4:30pm)- fix bug on movement
 2 hour(1pm-3pm): work on the new boss</t>
+  </si>
+  <si>
+    <t>2 hour (11am - 1pm): work on presentation slide</t>
   </si>
 </sst>
 </file>
@@ -526,8 +529,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A69" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B70" sqref="B70"/>
+    <sheetView tabSelected="1" topLeftCell="A70" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B71" sqref="B71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="73.28515625" defaultRowHeight="119.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1036,7 +1039,9 @@
       <c r="A71" s="2">
         <v>45232</v>
       </c>
-      <c r="B71" s="3"/>
+      <c r="B71" s="3" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="72" spans="1:2" ht="119.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="2">

--- a/timelog_ZixianLin.xlsx
+++ b/timelog_ZixianLin.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\linst\OneDrive\Desktop\4900 projects\chocohippo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB056E5D-F935-4A75-BCB5-CB2B09D98EFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8294935C-7DFF-4E4A-812B-21568C8F742E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4050" yWindow="1905" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4395" yWindow="2250" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>Zixian Lin</t>
   </si>
@@ -179,6 +179,9 @@
   </si>
   <si>
     <t>2 hour (11am - 1pm): work on presentation slide</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 hour(9am-10am): add portal to boss3 and fixing bug with game </t>
   </si>
 </sst>
 </file>
@@ -529,8 +532,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B71" sqref="B71"/>
+    <sheetView tabSelected="1" topLeftCell="A71" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B72" sqref="B72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="73.28515625" defaultRowHeight="119.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1047,7 +1050,9 @@
       <c r="A72" s="2">
         <v>45233</v>
       </c>
-      <c r="B72" s="3"/>
+      <c r="B72" s="3" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="73" spans="1:2" ht="119.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="2">

--- a/timelog_ZixianLin.xlsx
+++ b/timelog_ZixianLin.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\linst\OneDrive\Desktop\4900 projects\chocohippo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8294935C-7DFF-4E4A-812B-21568C8F742E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CA97F46-5587-42CF-B035-0D461AB45D91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4395" yWindow="2250" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -181,7 +181,9 @@
     <t>2 hour (11am - 1pm): work on presentation slide</t>
   </si>
   <si>
-    <t xml:space="preserve">1 hour(9am-10am): add portal to boss3 and fixing bug with game </t>
+    <t xml:space="preserve">1 hour(9am-10am): add portal to boss3 and fixing bug with game 
+1hour(1pm-2pm): researching online on how to fix ai move
+1 hour 30 minutes (2pm -3:30pm): trying to fix the bug of AI trying to walk off the map, did not fix it yet. </t>
   </si>
 </sst>
 </file>
@@ -533,7 +535,7 @@
   <dimension ref="A1:B114"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A71" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B72" sqref="B72"/>
+      <selection activeCell="B73" sqref="B73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="73.28515625" defaultRowHeight="119.25" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/timelog_ZixianLin.xlsx
+++ b/timelog_ZixianLin.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\linst\OneDrive\Desktop\4900 projects\chocohippo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CA97F46-5587-42CF-B035-0D461AB45D91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31DD3216-7264-4720-99BD-6085D89407A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4395" yWindow="2250" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>Zixian Lin</t>
   </si>
@@ -184,6 +184,9 @@
     <t xml:space="preserve">1 hour(9am-10am): add portal to boss3 and fixing bug with game 
 1hour(1pm-2pm): researching online on how to fix ai move
 1 hour 30 minutes (2pm -3:30pm): trying to fix the bug of AI trying to walk off the map, did not fix it yet. </t>
+  </si>
+  <si>
+    <t>1 hour(8:40pm - 9:40pm ): continue to try to fix the bug</t>
   </si>
 </sst>
 </file>
@@ -534,7 +537,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A71" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A72" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B73" sqref="B73"/>
     </sheetView>
   </sheetViews>
@@ -1060,7 +1063,9 @@
       <c r="A73" s="2">
         <v>45234</v>
       </c>
-      <c r="B73" s="3"/>
+      <c r="B73" s="3" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="74" spans="1:2" ht="119.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="2">

--- a/timelog_ZixianLin.xlsx
+++ b/timelog_ZixianLin.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\linst\OneDrive\Desktop\4900 projects\chocohippo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31DD3216-7264-4720-99BD-6085D89407A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D386A99-1F7B-4F5F-A185-6FD33020A220}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4395" yWindow="2250" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>Zixian Lin</t>
   </si>
@@ -187,6 +187,12 @@
   </si>
   <si>
     <t>1 hour(8:40pm - 9:40pm ): continue to try to fix the bug</t>
+  </si>
+  <si>
+    <t>30 minutes (9:30pm- 10pm): meeting with jorge about a bug</t>
+  </si>
+  <si>
+    <t>2 hour 30 minutes (9:00am -11:30am): adding pills to the game where player can heal and fix bug with boss 3 where it cant take damage</t>
   </si>
 </sst>
 </file>
@@ -537,8 +543,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A72" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B73" sqref="B73"/>
+    <sheetView tabSelected="1" topLeftCell="A76" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B78" sqref="B78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="73.28515625" defaultRowHeight="119.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1083,13 +1089,17 @@
       <c r="A76" s="2">
         <v>45237</v>
       </c>
-      <c r="B76" s="3"/>
+      <c r="B76" s="3" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="77" spans="1:2" ht="119.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
         <v>45238</v>
       </c>
-      <c r="B77" s="3"/>
+      <c r="B77" s="3" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="78" spans="1:2" ht="119.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="2">

--- a/timelog_ZixianLin.xlsx
+++ b/timelog_ZixianLin.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\linst\OneDrive\Desktop\4900 projects\chocohippo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D386A99-1F7B-4F5F-A185-6FD33020A220}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41D0620B-300E-4FB9-BD9C-03207E18F585}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4395" yWindow="2250" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -192,7 +192,8 @@
     <t>30 minutes (9:30pm- 10pm): meeting with jorge about a bug</t>
   </si>
   <si>
-    <t>2 hour 30 minutes (9:00am -11:30am): adding pills to the game where player can heal and fix bug with boss 3 where it cant take damage</t>
+    <t>2 hour 30 minutes (9:00am -11:30am): adding pills to the game where player can heal and fix bug with boss 3 where it cant take damage
+30 minutes (11:30am- 12pm): made balance change</t>
   </si>
 </sst>
 </file>
@@ -543,8 +544,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B78" sqref="B78"/>
+    <sheetView tabSelected="1" topLeftCell="A77" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B77" sqref="B77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="73.28515625" defaultRowHeight="119.25" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/timelog_ZixianLin.xlsx
+++ b/timelog_ZixianLin.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\linst\OneDrive\Desktop\4900 projects\chocohippo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41D0620B-300E-4FB9-BD9C-03207E18F585}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA2A2350-B90F-41BC-BB4D-BC7D76807CEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4395" yWindow="2250" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -193,6 +193,7 @@
   </si>
   <si>
     <t>2 hour 30 minutes (9:00am -11:30am): adding pills to the game where player can heal and fix bug with boss 3 where it cant take damage
+1 hour (12pm-1pm): added feul pod 
 30 minutes (11:30am- 12pm): made balance change</t>
   </si>
 </sst>

--- a/timelog_ZixianLin.xlsx
+++ b/timelog_ZixianLin.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\linst\OneDrive\Desktop\4900 projects\chocohippo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA2A2350-B90F-41BC-BB4D-BC7D76807CEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C42132AF-F4E5-4B09-A95C-7CC74FCC7BD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4395" yWindow="2250" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -194,7 +194,8 @@
   <si>
     <t>2 hour 30 minutes (9:00am -11:30am): adding pills to the game where player can heal and fix bug with boss 3 where it cant take damage
 1 hour (12pm-1pm): added feul pod 
-30 minutes (11:30am- 12pm): made balance change</t>
+30 minutes (11:30am- 12pm): made balance change
+2 hour 30 minutes (4:30pm -7pm) learning and testing out shader Graph in unity</t>
   </si>
 </sst>
 </file>

--- a/timelog_ZixianLin.xlsx
+++ b/timelog_ZixianLin.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\linst\OneDrive\Desktop\4900 projects\chocohippo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C42132AF-F4E5-4B09-A95C-7CC74FCC7BD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1544F343-DF4D-40F3-B111-3A6ABD45881C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4395" yWindow="2250" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>Zixian Lin</t>
   </si>
@@ -196,6 +196,9 @@
 1 hour (12pm-1pm): added feul pod 
 30 minutes (11:30am- 12pm): made balance change
 2 hour 30 minutes (4:30pm -7pm) learning and testing out shader Graph in unity</t>
+  </si>
+  <si>
+    <t>2 hour (11am-1pm): create the game over scene and restart the game and fix bug</t>
   </si>
 </sst>
 </file>
@@ -547,7 +550,7 @@
   <dimension ref="A1:B114"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A77" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B77" sqref="B77"/>
+      <selection activeCell="B79" sqref="B79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="73.28515625" defaultRowHeight="119.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1108,7 +1111,9 @@
       <c r="A78" s="2">
         <v>45239</v>
       </c>
-      <c r="B78" s="3"/>
+      <c r="B78" s="3" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="79" spans="1:2" ht="119.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="2">

--- a/timelog_ZixianLin.xlsx
+++ b/timelog_ZixianLin.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\linst\OneDrive\Desktop\4900 projects\chocohippo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1544F343-DF4D-40F3-B111-3A6ABD45881C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{945A74EE-860E-4107-94C3-6A0FCB635B30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4395" yWindow="2250" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4740" yWindow="2595" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -198,7 +198,7 @@
 2 hour 30 minutes (4:30pm -7pm) learning and testing out shader Graph in unity</t>
   </si>
   <si>
-    <t>2 hour (11am-1pm): create the game over scene and restart the game and fix bug</t>
+    <t>4 hour (11am-1pm)(3pm-5pm): create the game over scene and restart the game and fix bug</t>
   </si>
 </sst>
 </file>
@@ -550,7 +550,7 @@
   <dimension ref="A1:B114"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A77" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B79" sqref="B79"/>
+      <selection activeCell="B78" sqref="B78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="73.28515625" defaultRowHeight="119.25" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/timelog_ZixianLin.xlsx
+++ b/timelog_ZixianLin.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\linst\OneDrive\Desktop\4900 projects\chocohippo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{945A74EE-860E-4107-94C3-6A0FCB635B30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95BC4D50-C7CB-4A37-AD57-884FE0DEC421}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4740" yWindow="2595" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -549,7 +549,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A77" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A65" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B78" sqref="B78"/>
     </sheetView>
   </sheetViews>

--- a/timelog_ZixianLin.xlsx
+++ b/timelog_ZixianLin.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\linst\OneDrive\Desktop\4900 projects\chocohippo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95BC4D50-C7CB-4A37-AD57-884FE0DEC421}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97BCA71F-DF53-49BA-89E5-67C06F89DD6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4740" yWindow="2595" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <t>Zixian Lin</t>
   </si>
@@ -199,6 +199,9 @@
   </si>
   <si>
     <t>4 hour (11am-1pm)(3pm-5pm): create the game over scene and restart the game and fix bug</t>
+  </si>
+  <si>
+    <t>3 hour (3pm - 6pm): trying to create UI menu</t>
   </si>
 </sst>
 </file>
@@ -549,8 +552,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A65" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B78" sqref="B78"/>
+    <sheetView tabSelected="1" topLeftCell="A78" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B79" sqref="B79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="73.28515625" defaultRowHeight="119.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1119,7 +1122,9 @@
       <c r="A79" s="2">
         <v>45240</v>
       </c>
-      <c r="B79" s="3"/>
+      <c r="B79" s="3" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="80" spans="1:2" ht="119.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="2">

--- a/timelog_ZixianLin.xlsx
+++ b/timelog_ZixianLin.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\linst\OneDrive\Desktop\4900 projects\chocohippo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97BCA71F-DF53-49BA-89E5-67C06F89DD6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC7588D4-1C9B-498F-8B54-C1C5C28081CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4740" yWindow="2595" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>Zixian Lin</t>
   </si>
@@ -202,6 +202,9 @@
   </si>
   <si>
     <t>3 hour (3pm - 6pm): trying to create UI menu</t>
+  </si>
+  <si>
+    <t>1 hour 30 minutes (6:30pm-8pm): watch tutorial on bender.</t>
   </si>
 </sst>
 </file>
@@ -552,8 +555,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A78" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B79" sqref="B79"/>
+    <sheetView tabSelected="1" topLeftCell="A81" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B81" sqref="B81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="73.28515625" defaultRowHeight="119.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1136,7 +1139,9 @@
       <c r="A81" s="2">
         <v>45242</v>
       </c>
-      <c r="B81" s="3"/>
+      <c r="B81" s="3" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="82" spans="1:2" ht="119.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="2">

--- a/timelog_ZixianLin.xlsx
+++ b/timelog_ZixianLin.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\linst\OneDrive\Desktop\4900 projects\chocohippo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC7588D4-1C9B-498F-8B54-C1C5C28081CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{996E8EC8-B5C8-45E6-A5DD-6C1680E91A02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4740" yWindow="2595" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -204,7 +204,8 @@
     <t>3 hour (3pm - 6pm): trying to create UI menu</t>
   </si>
   <si>
-    <t>1 hour 30 minutes (6:30pm-8pm): watch tutorial on bender.</t>
+    <t xml:space="preserve">1 hour 30 minutes (6:30pm-8pm): watch tutorial on bender.
+1 hour (9pm-10pm): group meeting </t>
   </si>
 </sst>
 </file>
@@ -556,7 +557,7 @@
   <dimension ref="A1:B114"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A81" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B81" sqref="B81"/>
+      <selection activeCell="B82" sqref="B82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="73.28515625" defaultRowHeight="119.25" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/timelog_ZixianLin.xlsx
+++ b/timelog_ZixianLin.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\linst\OneDrive\Desktop\4900 projects\chocohippo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{996E8EC8-B5C8-45E6-A5DD-6C1680E91A02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65DAD669-3DE1-49AE-9C5E-DA419B3797D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4740" yWindow="2595" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>Zixian Lin</t>
   </si>
@@ -206,6 +206,9 @@
   <si>
     <t xml:space="preserve">1 hour 30 minutes (6:30pm-8pm): watch tutorial on bender.
 1 hour (9pm-10pm): group meeting </t>
+  </si>
+  <si>
+    <t>2 hour (10am - 12pm): fix up the game menu to get it ready for use</t>
   </si>
 </sst>
 </file>
@@ -556,8 +559,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A81" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B82" sqref="B82"/>
+    <sheetView tabSelected="1" topLeftCell="A82" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B83" sqref="B83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="73.28515625" defaultRowHeight="119.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1154,7 +1157,9 @@
       <c r="A83" s="2">
         <v>45244</v>
       </c>
-      <c r="B83" s="3"/>
+      <c r="B83" s="3" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="84" spans="1:2" ht="119.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="2">

--- a/timelog_ZixianLin.xlsx
+++ b/timelog_ZixianLin.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\linst\OneDrive\Desktop\4900 projects\chocohippo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65DAD669-3DE1-49AE-9C5E-DA419B3797D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8647FA46-9511-47EA-BA1F-912924299592}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4740" yWindow="2595" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -208,7 +208,8 @@
 1 hour (9pm-10pm): group meeting </t>
   </si>
   <si>
-    <t>2 hour (10am - 12pm): fix up the game menu to get it ready for use</t>
+    <t>2 hour (10am - 12pm): fix up the game menu to get it ready for use
+2 hour (8:30pm - 10:30pm): testing out new asset to add to the game</t>
   </si>
 </sst>
 </file>

--- a/timelog_ZixianLin.xlsx
+++ b/timelog_ZixianLin.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\linst\OneDrive\Desktop\4900 projects\chocohippo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8647FA46-9511-47EA-BA1F-912924299592}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91D274D1-19C1-493C-8F57-C87E7C5EB744}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4740" yWindow="2595" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <si>
     <t>Zixian Lin</t>
   </si>
@@ -208,8 +208,11 @@
 1 hour (9pm-10pm): group meeting </t>
   </si>
   <si>
-    <t>2 hour (10am - 12pm): fix up the game menu to get it ready for use
+    <t xml:space="preserve">
 2 hour (8:30pm - 10:30pm): testing out new asset to add to the game</t>
+  </si>
+  <si>
+    <t>2 hour (10am - 12pm): fix up the game menu to get it ready for use</t>
   </si>
 </sst>
 </file>
@@ -560,8 +563,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B83" sqref="B83"/>
+    <sheetView tabSelected="1" topLeftCell="A83" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B84" sqref="B84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="73.28515625" defaultRowHeight="119.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1166,7 +1169,9 @@
       <c r="A84" s="2">
         <v>45245</v>
       </c>
-      <c r="B84" s="3"/>
+      <c r="B84" s="3" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="85" spans="1:2" ht="119.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="2">

--- a/timelog_ZixianLin.xlsx
+++ b/timelog_ZixianLin.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\linst\OneDrive\Desktop\4900 projects\chocohippo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91D274D1-19C1-493C-8F57-C87E7C5EB744}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{202F9ECF-DDBD-4CE1-A6A3-B6D87A5A9A5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4740" yWindow="2595" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>Zixian Lin</t>
   </si>
@@ -213,6 +213,9 @@
   </si>
   <si>
     <t>2 hour (10am - 12pm): fix up the game menu to get it ready for use</t>
+  </si>
+  <si>
+    <t>3 hour (10:30am -1:30pm): trying to add the menu to the player character as well and trying to fix the bug of not being able to us it when two player are in the game</t>
   </si>
 </sst>
 </file>
@@ -563,8 +566,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A83" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B84" sqref="B84"/>
+    <sheetView tabSelected="1" topLeftCell="A84" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B86" sqref="B86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="73.28515625" defaultRowHeight="119.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1177,7 +1180,9 @@
       <c r="A85" s="2">
         <v>45246</v>
       </c>
-      <c r="B85" s="3"/>
+      <c r="B85" s="3" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="86" spans="1:2" ht="119.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="2">

--- a/timelog_ZixianLin.xlsx
+++ b/timelog_ZixianLin.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\linst\OneDrive\Desktop\4900 projects\chocohippo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{202F9ECF-DDBD-4CE1-A6A3-B6D87A5A9A5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{386E1D33-ED51-4228-8653-6F9DF8F48D41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4740" yWindow="2595" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -215,7 +215,8 @@
     <t>2 hour (10am - 12pm): fix up the game menu to get it ready for use</t>
   </si>
   <si>
-    <t>3 hour (10:30am -1:30pm): trying to add the menu to the player character as well and trying to fix the bug of not being able to us it when two player are in the game</t>
+    <t>3 hour (10:30am -1:30pm): trying to add the menu to the player character as well and trying to fix the bug of not being able to us it when two player are in the game
+2 hour (2pm -4pm): added in a ammo and health pack spawner and fix spawning bug</t>
   </si>
 </sst>
 </file>

--- a/timelog_ZixianLin.xlsx
+++ b/timelog_ZixianLin.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\linst\OneDrive\Desktop\4900 projects\chocohippo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{386E1D33-ED51-4228-8653-6F9DF8F48D41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15D664A9-95CC-4637-9C0B-D7A45EF6A60D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4740" yWindow="2595" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -216,6 +216,7 @@
   </si>
   <si>
     <t>3 hour (10:30am -1:30pm): trying to add the menu to the player character as well and trying to fix the bug of not being able to us it when two player are in the game
+1 hour(4pm-5pm): make some quality of life change
 2 hour (2pm -4pm): added in a ammo and health pack spawner and fix spawning bug</t>
   </si>
 </sst>

--- a/timelog_ZixianLin.xlsx
+++ b/timelog_ZixianLin.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\linst\OneDrive\Desktop\4900 projects\chocohippo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15D664A9-95CC-4637-9C0B-D7A45EF6A60D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FCD76D4-AF23-4DA5-9538-B8DB43083B96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4740" yWindow="2595" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
   <si>
     <t>Zixian Lin</t>
   </si>
@@ -218,6 +218,9 @@
     <t>3 hour (10:30am -1:30pm): trying to add the menu to the player character as well and trying to fix the bug of not being able to us it when two player are in the game
 1 hour(4pm-5pm): make some quality of life change
 2 hour (2pm -4pm): added in a ammo and health pack spawner and fix spawning bug</t>
+  </si>
+  <si>
+    <t>1 hour (9pm-10pm): group meeting</t>
   </si>
 </sst>
 </file>
@@ -568,8 +571,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A84" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B86" sqref="B86"/>
+    <sheetView tabSelected="1" topLeftCell="A33" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B88" sqref="B88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="73.28515625" defaultRowHeight="119.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1202,7 +1205,9 @@
       <c r="A88" s="2">
         <v>45249</v>
       </c>
-      <c r="B88" s="3"/>
+      <c r="B88" s="3" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="89" spans="1:2" ht="119.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="2">

--- a/timelog_ZixianLin.xlsx
+++ b/timelog_ZixianLin.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\linst\OneDrive\Desktop\4900 projects\chocohippo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FCD76D4-AF23-4DA5-9538-B8DB43083B96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7864652-1D55-4A1E-B40E-B9ACE36D1842}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4740" yWindow="2595" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
   <si>
     <t>Zixian Lin</t>
   </si>
@@ -221,6 +221,9 @@
   </si>
   <si>
     <t>1 hour (9pm-10pm): group meeting</t>
+  </si>
+  <si>
+    <t>2 hour (3:00pm -5pm): reworking the nav mesh for AI navagation</t>
   </si>
 </sst>
 </file>
@@ -571,8 +574,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B88" sqref="B88"/>
+    <sheetView tabSelected="1" topLeftCell="A90" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B90" sqref="B90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="73.28515625" defaultRowHeight="119.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1219,7 +1222,9 @@
       <c r="A90" s="2">
         <v>45251</v>
       </c>
-      <c r="B90" s="3"/>
+      <c r="B90" s="3" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="91" spans="1:2" ht="119.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="2">

--- a/timelog_ZixianLin.xlsx
+++ b/timelog_ZixianLin.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\linst\OneDrive\Desktop\4900 projects\chocohippo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7864652-1D55-4A1E-B40E-B9ACE36D1842}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B866477-E430-4960-8E45-848003C9F63E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4740" yWindow="2595" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5415" yWindow="1965" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
   <si>
     <t>Zixian Lin</t>
   </si>
@@ -224,6 +224,12 @@
   </si>
   <si>
     <t>2 hour (3:00pm -5pm): reworking the nav mesh for AI navagation</t>
+  </si>
+  <si>
+    <t>3 hour(1pm -4pm)- testing asset and trying to figure out how to make a navagation  system that can move in air</t>
+  </si>
+  <si>
+    <t>2 hour(8:30am-10:30am): creating a new movement script for the learning scene.</t>
   </si>
 </sst>
 </file>
@@ -574,8 +580,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A90" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B90" sqref="B90"/>
+    <sheetView tabSelected="1" topLeftCell="A91" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B92" sqref="B92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="73.28515625" defaultRowHeight="119.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1230,13 +1236,17 @@
       <c r="A91" s="2">
         <v>45252</v>
       </c>
-      <c r="B91" s="3"/>
+      <c r="B91" s="3" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="92" spans="1:2" ht="119.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
         <v>45253</v>
       </c>
-      <c r="B92" s="3"/>
+      <c r="B92" s="3" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="93" spans="1:2" ht="119.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="2">

--- a/timelog_ZixianLin.xlsx
+++ b/timelog_ZixianLin.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\linst\OneDrive\Desktop\4900 projects\chocohippo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B866477-E430-4960-8E45-848003C9F63E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FA55F96-9B00-4BB5-8F05-E4DBB25E8C0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5415" yWindow="1965" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -223,13 +223,14 @@
     <t>1 hour (9pm-10pm): group meeting</t>
   </si>
   <si>
-    <t>2 hour (3:00pm -5pm): reworking the nav mesh for AI navagation</t>
-  </si>
-  <si>
     <t>3 hour(1pm -4pm)- testing asset and trying to figure out how to make a navagation  system that can move in air</t>
   </si>
   <si>
     <t>2 hour(8:30am-10:30am): creating a new movement script for the learning scene.</t>
+  </si>
+  <si>
+    <t>2 hour (3:00pm -5pm): reworking the nav mesh for AI navagation
+2 hour (6pm-8pm):watcning random unity video for idea of boss 4</t>
   </si>
 </sst>
 </file>
@@ -580,8 +581,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B92" sqref="B92"/>
+    <sheetView tabSelected="1" topLeftCell="A86" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B86" sqref="B86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="73.28515625" defaultRowHeight="119.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1229,7 +1230,7 @@
         <v>45251</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="91" spans="1:2" ht="119.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1237,7 +1238,7 @@
         <v>45252</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="92" spans="1:2" ht="119.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1245,7 +1246,7 @@
         <v>45253</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="93" spans="1:2" ht="119.25" customHeight="1" x14ac:dyDescent="0.25">

--- a/timelog_ZixianLin.xlsx
+++ b/timelog_ZixianLin.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\linst\OneDrive\Desktop\4900 projects\chocohippo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FA55F96-9B00-4BB5-8F05-E4DBB25E8C0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F09CBC61-C1B6-4B3F-88AA-6C6FFC1CE3F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5415" yWindow="1965" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -226,11 +226,12 @@
     <t>3 hour(1pm -4pm)- testing asset and trying to figure out how to make a navagation  system that can move in air</t>
   </si>
   <si>
-    <t>2 hour(8:30am-10:30am): creating a new movement script for the learning scene.</t>
-  </si>
-  <si>
     <t>2 hour (3:00pm -5pm): reworking the nav mesh for AI navagation
 2 hour (6pm-8pm):watcning random unity video for idea of boss 4</t>
+  </si>
+  <si>
+    <t>2 hour(8:30am-10:30am): creating a new movement script for the learning scene.
+3 hour(12pm -3pm): work on boss 4</t>
   </si>
 </sst>
 </file>
@@ -581,8 +582,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A86" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B86" sqref="B86"/>
+    <sheetView tabSelected="1" topLeftCell="A92" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B92" sqref="B92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="73.28515625" defaultRowHeight="119.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1230,7 +1231,7 @@
         <v>45251</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="91" spans="1:2" ht="119.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1246,7 +1247,7 @@
         <v>45253</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="93" spans="1:2" ht="119.25" customHeight="1" x14ac:dyDescent="0.25">

--- a/timelog_ZixianLin.xlsx
+++ b/timelog_ZixianLin.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\linst\OneDrive\Desktop\4900 projects\chocohippo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F09CBC61-C1B6-4B3F-88AA-6C6FFC1CE3F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75766154-7029-4311-862E-C93D8C593C5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5415" yWindow="1965" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5760" yWindow="2310" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
   <si>
     <t>Zixian Lin</t>
   </si>
@@ -232,6 +232,9 @@
   <si>
     <t>2 hour(8:30am-10:30am): creating a new movement script for the learning scene.
 3 hour(12pm -3pm): work on boss 4</t>
+  </si>
+  <si>
+    <t>5 hour (11am -4pm):work on the boss 4 and it boss room and fixing bugs in the game</t>
   </si>
 </sst>
 </file>
@@ -582,8 +585,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A92" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B92" sqref="B92"/>
+    <sheetView tabSelected="1" topLeftCell="A98" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B98" sqref="B98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="73.28515625" defaultRowHeight="119.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1284,7 +1287,9 @@
       <c r="A98" s="2">
         <v>45259</v>
       </c>
-      <c r="B98" s="3"/>
+      <c r="B98" s="3" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="99" spans="1:2" ht="119.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="2">

--- a/timelog_ZixianLin.xlsx
+++ b/timelog_ZixianLin.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\linst\OneDrive\Desktop\4900 projects\chocohippo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75766154-7029-4311-862E-C93D8C593C5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C228814C-4083-417E-B4D5-BD30CA1ABAEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5760" yWindow="2310" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3555" yWindow="3270" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
   <si>
     <t>Zixian Lin</t>
   </si>
@@ -235,6 +235,9 @@
   </si>
   <si>
     <t>5 hour (11am -4pm):work on the boss 4 and it boss room and fixing bugs in the game</t>
+  </si>
+  <si>
+    <t>5 hour(10:30-3:30pm):playtesting the game and fixing bugs</t>
   </si>
 </sst>
 </file>
@@ -585,8 +588,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A98" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B98" sqref="B98"/>
+    <sheetView tabSelected="1" topLeftCell="A80" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B99" sqref="B99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="73.28515625" defaultRowHeight="119.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1295,7 +1298,9 @@
       <c r="A99" s="2">
         <v>45260</v>
       </c>
-      <c r="B99" s="3"/>
+      <c r="B99" s="3" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="100" spans="1:2" ht="119.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="2">

--- a/timelog_ZixianLin.xlsx
+++ b/timelog_ZixianLin.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\linst\OneDrive\Desktop\4900 projects\chocohippo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C228814C-4083-417E-B4D5-BD30CA1ABAEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF287211-A0D7-483F-B578-0787BFF2E628}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3555" yWindow="3270" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
   <si>
     <t>Zixian Lin</t>
   </si>
@@ -237,7 +237,10 @@
     <t>5 hour (11am -4pm):work on the boss 4 and it boss room and fixing bugs in the game</t>
   </si>
   <si>
-    <t>5 hour(10:30-3:30pm):playtesting the game and fixing bugs</t>
+    <t>7 hour(10:30-3:30pm,10pm-12am):playtesting the game and fixing bugs</t>
+  </si>
+  <si>
+    <t>2 hour(2pm-4pm):change navmest movement code and rework walking animation for boss 2</t>
   </si>
 </sst>
 </file>
@@ -588,8 +591,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A80" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B99" sqref="B99"/>
+    <sheetView tabSelected="1" topLeftCell="A99" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B101" sqref="B101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="73.28515625" defaultRowHeight="119.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1306,7 +1309,9 @@
       <c r="A100" s="2">
         <v>45261</v>
       </c>
-      <c r="B100" s="3"/>
+      <c r="B100" s="3" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="101" spans="1:2" ht="119.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="2">

--- a/timelog_ZixianLin.xlsx
+++ b/timelog_ZixianLin.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\linst\OneDrive\Desktop\4900 projects\chocohippo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF287211-A0D7-483F-B578-0787BFF2E628}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A34A44C-3EC7-41AD-B481-5A73E14273FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3555" yWindow="3270" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="59">
   <si>
     <t>Zixian Lin</t>
   </si>
@@ -241,6 +241,9 @@
   </si>
   <si>
     <t>2 hour(2pm-4pm):change navmest movement code and rework walking animation for boss 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 hour (10am -2pm): working on the final slide and making quality of life changes to the game </t>
   </si>
 </sst>
 </file>
@@ -591,8 +594,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A99" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B101" sqref="B101"/>
+    <sheetView tabSelected="1" topLeftCell="A103" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B104" sqref="B104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="73.28515625" defaultRowHeight="119.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1323,7 +1326,9 @@
       <c r="A102" s="2">
         <v>45263</v>
       </c>
-      <c r="B102" s="3"/>
+      <c r="B102" s="3" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="103" spans="1:2" ht="119.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="2">
@@ -1335,7 +1340,9 @@
       <c r="A104" s="2">
         <v>45265</v>
       </c>
-      <c r="B104" s="3"/>
+      <c r="B104" s="3" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="105" spans="1:2" ht="119.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="2">

--- a/timelog_ZixianLin.xlsx
+++ b/timelog_ZixianLin.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\linst\OneDrive\Desktop\4900 projects\chocohippo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A34A44C-3EC7-41AD-B481-5A73E14273FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7A7D388-C9E9-43C1-8AE2-86C93B678197}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3555" yWindow="3270" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -243,7 +243,8 @@
     <t>2 hour(2pm-4pm):change navmest movement code and rework walking animation for boss 2</t>
   </si>
   <si>
-    <t xml:space="preserve">4 hour (10am -2pm): working on the final slide and making quality of life changes to the game </t>
+    <t>4 hour (10am -2pm): working on the final slide and making quality of life changes to the game 
+2 hour- (3pm -5pm): working on player character bug for run and gun map</t>
   </si>
 </sst>
 </file>

--- a/timelog_ZixianLin.xlsx
+++ b/timelog_ZixianLin.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\linst\OneDrive\Desktop\4900 projects\chocohippo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7A7D388-C9E9-43C1-8AE2-86C93B678197}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBE662BA-B8F3-4655-9741-5D314EA89B4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3555" yWindow="3270" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="60">
   <si>
     <t>Zixian Lin</t>
   </si>
@@ -245,6 +245,9 @@
   <si>
     <t>4 hour (10am -2pm): working on the final slide and making quality of life changes to the game 
 2 hour- (3pm -5pm): working on player character bug for run and gun map</t>
+  </si>
+  <si>
+    <t>3 hour(12pm-3pm):work on slide and fix a few thing in game</t>
   </si>
 </sst>
 </file>
@@ -595,8 +598,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B104" sqref="B104"/>
+    <sheetView tabSelected="1" topLeftCell="A104" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B105" sqref="B105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="73.28515625" defaultRowHeight="119.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1349,7 +1352,9 @@
       <c r="A105" s="2">
         <v>45266</v>
       </c>
-      <c r="B105" s="3"/>
+      <c r="B105" s="3" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="106" spans="1:2" ht="119.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="2">

--- a/timelog_ZixianLin.xlsx
+++ b/timelog_ZixianLin.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\linst\OneDrive\Desktop\4900 projects\chocohippo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBE662BA-B8F3-4655-9741-5D314EA89B4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88305479-92F6-44E9-9B5A-70A4BBC8543D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3555" yWindow="3270" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="63">
   <si>
     <t>Zixian Lin</t>
   </si>
@@ -248,6 +248,16 @@
   </si>
   <si>
     <t>3 hour(12pm-3pm):work on slide and fix a few thing in game</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+2 hour- (3pm -5pm): working on player character bug for run and gun map</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 hour (7pm -8pm):fixing random thing </t>
+  </si>
+  <si>
+    <t>2 hour(9pm -11pm)-group meetingwith team to fix a last a character</t>
   </si>
 </sst>
 </file>
@@ -598,8 +608,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A104" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B105" sqref="B105"/>
+    <sheetView tabSelected="1" topLeftCell="A108" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B109" sqref="B109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="73.28515625" defaultRowHeight="119.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1345,7 +1355,7 @@
         <v>45265</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="105" spans="1:2" ht="119.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1353,26 +1363,32 @@
         <v>45266</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="106" spans="1:2" ht="119.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="2">
         <v>45267</v>
       </c>
-      <c r="B106" s="3"/>
+      <c r="B106" s="3" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="107" spans="1:2" ht="119.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="2">
         <v>45268</v>
       </c>
-      <c r="B107" s="3"/>
+      <c r="B107" s="3" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="108" spans="1:2" ht="119.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="2">
         <v>45269</v>
       </c>
-      <c r="B108" s="3"/>
+      <c r="B108" s="3" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="109" spans="1:2" ht="119.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="2">

--- a/timelog_ZixianLin.xlsx
+++ b/timelog_ZixianLin.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\linst\OneDrive\Desktop\4900 projects\chocohippo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88305479-92F6-44E9-9B5A-70A4BBC8543D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87B2BDD9-6A53-4DE5-B1ED-B08E0AF2B9D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3555" yWindow="3270" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="66">
   <si>
     <t>Zixian Lin</t>
   </si>
@@ -258,6 +258,15 @@
   </si>
   <si>
     <t>2 hour(9pm -11pm)-group meetingwith team to fix a last a character</t>
+  </si>
+  <si>
+    <t>2 hour 30 minutes(9pm-11:30pm)</t>
+  </si>
+  <si>
+    <t>1 hour (10am-11am):meeting with supervisor</t>
+  </si>
+  <si>
+    <t>total:227hours and 30mins</t>
   </si>
 </sst>
 </file>
@@ -606,10 +615,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B114"/>
+  <dimension ref="A1:B115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A108" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B109" sqref="B109"/>
+    <sheetView tabSelected="1" topLeftCell="A112" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B116" sqref="B116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="73.28515625" defaultRowHeight="119.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1394,13 +1403,17 @@
       <c r="A109" s="2">
         <v>45270</v>
       </c>
-      <c r="B109" s="3"/>
+      <c r="B109" s="3" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="110" spans="1:2" ht="119.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="2">
         <v>45271</v>
       </c>
-      <c r="B110" s="3"/>
+      <c r="B110" s="3" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="111" spans="1:2" ht="119.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="2">
@@ -1412,7 +1425,9 @@
       <c r="A112" s="2">
         <v>45273</v>
       </c>
-      <c r="B112" s="3"/>
+      <c r="B112" s="3">
+        <v>2</v>
+      </c>
     </row>
     <row r="113" spans="1:2" ht="119.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="2">
@@ -1425,6 +1440,11 @@
         <v>45275</v>
       </c>
       <c r="B114" s="3"/>
+    </row>
+    <row r="115" spans="1:2" ht="119.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B115" t="s">
+        <v>65</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
